--- a/data/trans_bre/P3A$yo-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P3A$yo-Habitat-trans_bre.xlsx
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>26.39794014625042</v>
+        <v>26.30823168171598</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.3980227697649034</v>
+        <v>0.3931180471196315</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>35.1758212967414</v>
+        <v>34.97534248812168</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.6016217666463206</v>
+        <v>0.5953781983122709</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>26.92460093243234</v>
+        <v>26.92460093243233</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.4141607003355854</v>
+        <v>0.4141607003355852</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>23.15909948300614</v>
+        <v>22.92986164829475</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.3397327880524369</v>
+        <v>0.3360596376272879</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>30.63462898369824</v>
+        <v>30.6765861874177</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4970525762157469</v>
+        <v>0.498578418715179</v>
       </c>
     </row>
     <row r="10">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>18.72300559145366</v>
+        <v>18.77695256913113</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>0.2672121789279243</v>
+        <v>0.2668645095170702</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>27.80447587820007</v>
+        <v>27.65383224909567</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.4407320627880946</v>
+        <v>0.4330036121263603</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>21.29059344461539</v>
+        <v>21.29059344461537</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.3212989249297131</v>
+        <v>0.3212989249297126</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>17.28487073170016</v>
+        <v>17.57310347723342</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2477394417279004</v>
+        <v>0.2564094048623698</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>25.2996348438424</v>
+        <v>25.12598288444703</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3981183652067449</v>
+        <v>0.4020432528815375</v>
       </c>
     </row>
     <row r="16">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>23.27177402312205</v>
+        <v>23.13400404791</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.3480311888705003</v>
+        <v>0.3442563606962628</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>27.17241778759495</v>
+        <v>27.20880241906897</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.4261865116735543</v>
+        <v>0.4259763048467824</v>
       </c>
     </row>
     <row r="19">
